--- a/data/pca/factorExposure/factorExposure_2018-09-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03782069016293696</v>
+        <v>-0.03398453825233806</v>
       </c>
       <c r="C2">
-        <v>-0.05023280865584594</v>
+        <v>0.006974530196187117</v>
       </c>
       <c r="D2">
-        <v>-0.03473437188584198</v>
+        <v>0.00957305029069308</v>
       </c>
       <c r="E2">
-        <v>-0.0469681927443301</v>
+        <v>-0.01575331297289639</v>
       </c>
       <c r="F2">
-        <v>0.1329195974496666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02555268294791543</v>
+      </c>
+      <c r="G2">
+        <v>-0.07738339699489317</v>
+      </c>
+      <c r="H2">
+        <v>0.01529352198190278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1278990729951562</v>
+        <v>-0.08255928988300378</v>
       </c>
       <c r="C3">
-        <v>-0.02218687538128691</v>
+        <v>-0.03405922736724518</v>
       </c>
       <c r="D3">
-        <v>-0.02934799882509444</v>
+        <v>0.02014948042177895</v>
       </c>
       <c r="E3">
-        <v>-0.08457601425444911</v>
+        <v>-0.009260908914189001</v>
       </c>
       <c r="F3">
-        <v>0.3510583279846526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.0002113128527183725</v>
+      </c>
+      <c r="G3">
+        <v>-0.2672112194454438</v>
+      </c>
+      <c r="H3">
+        <v>0.02875529305116428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04556002880448453</v>
+        <v>-0.04550701417129321</v>
       </c>
       <c r="C4">
-        <v>-0.03543850443221538</v>
+        <v>-0.005324567344155927</v>
       </c>
       <c r="D4">
-        <v>0.004568898791006605</v>
+        <v>0.02207443552271804</v>
       </c>
       <c r="E4">
-        <v>-0.0702805725248003</v>
+        <v>0.02223823563535647</v>
       </c>
       <c r="F4">
-        <v>0.06344420850157233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06375654223455254</v>
+      </c>
+      <c r="G4">
+        <v>-0.04393670707583025</v>
+      </c>
+      <c r="H4">
+        <v>0.02587145259033821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01063499667231667</v>
+        <v>-0.03061473295957464</v>
       </c>
       <c r="C6">
-        <v>-0.001062770372105817</v>
+        <v>-0.003803308506904207</v>
       </c>
       <c r="D6">
-        <v>-0.01023264809797735</v>
+        <v>0.03193972303968274</v>
       </c>
       <c r="E6">
-        <v>-0.009879495103026636</v>
+        <v>0.00681149986579772</v>
       </c>
       <c r="F6">
-        <v>0.01157524260312316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.04120488274084887</v>
+      </c>
+      <c r="G6">
+        <v>-0.009460462198786174</v>
+      </c>
+      <c r="H6">
+        <v>0.04991618580233671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02291496678935497</v>
+        <v>-0.02072708072832737</v>
       </c>
       <c r="C7">
-        <v>-0.01961368222899075</v>
+        <v>-0.001968111867544822</v>
       </c>
       <c r="D7">
-        <v>-0.02614547843796573</v>
+        <v>0.01212564640224664</v>
       </c>
       <c r="E7">
-        <v>-0.03371638295245424</v>
+        <v>0.03600887962413667</v>
       </c>
       <c r="F7">
-        <v>0.07170768579535595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02611030426141954</v>
+      </c>
+      <c r="G7">
+        <v>-0.03304399207109458</v>
+      </c>
+      <c r="H7">
+        <v>0.01733187429481712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.007963234199132658</v>
+        <v>-0.0006533429123345214</v>
       </c>
       <c r="C8">
-        <v>-0.009221217413216711</v>
+        <v>-0.0002815123281212641</v>
       </c>
       <c r="D8">
-        <v>0.005985472409518914</v>
+        <v>0.01276489673091726</v>
       </c>
       <c r="E8">
-        <v>-0.07404862530346759</v>
+        <v>0.01306321299545709</v>
       </c>
       <c r="F8">
-        <v>0.08718972150002319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02786068768229954</v>
+      </c>
+      <c r="G8">
+        <v>-0.05039576438827428</v>
+      </c>
+      <c r="H8">
+        <v>0.007278045025714152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03552658648583205</v>
+        <v>-0.03564706065137462</v>
       </c>
       <c r="C9">
-        <v>-0.02962839142411728</v>
+        <v>-0.007234202699636466</v>
       </c>
       <c r="D9">
-        <v>0.02019051676628844</v>
+        <v>0.01799518396845699</v>
       </c>
       <c r="E9">
-        <v>-0.07162681909904473</v>
+        <v>0.02064406769860616</v>
       </c>
       <c r="F9">
-        <v>0.07427449838010278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04090983085129903</v>
+      </c>
+      <c r="G9">
+        <v>-0.0610034109329992</v>
+      </c>
+      <c r="H9">
+        <v>0.02879121681846395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05764256525866051</v>
+        <v>-0.07716674991090489</v>
       </c>
       <c r="C10">
-        <v>-0.04975854500982246</v>
+        <v>-0.04461589826360697</v>
       </c>
       <c r="D10">
-        <v>0.01998999413239409</v>
+        <v>-0.1397781907220073</v>
       </c>
       <c r="E10">
-        <v>0.109333456778277</v>
+        <v>-0.02434132368246393</v>
       </c>
       <c r="F10">
-        <v>0.06130655664257938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.09076012035366529</v>
+      </c>
+      <c r="G10">
+        <v>-0.03952409689322654</v>
+      </c>
+      <c r="H10">
+        <v>0.006608467744297542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03093451055878529</v>
+        <v>-0.02156269610434589</v>
       </c>
       <c r="C11">
-        <v>-0.01114715658955749</v>
+        <v>-0.01352072733209455</v>
       </c>
       <c r="D11">
-        <v>-0.01336836996912434</v>
+        <v>0.03001238248386955</v>
       </c>
       <c r="E11">
-        <v>-0.03296102871145621</v>
+        <v>-0.002442501983791214</v>
       </c>
       <c r="F11">
-        <v>0.03706725328415483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02617006072990525</v>
+      </c>
+      <c r="G11">
+        <v>-0.0326188860204677</v>
+      </c>
+      <c r="H11">
+        <v>0.02657330454047965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03813512375411903</v>
+        <v>-0.03010922780129367</v>
       </c>
       <c r="C12">
-        <v>-0.01307465122261645</v>
+        <v>-0.01360311590064833</v>
       </c>
       <c r="D12">
-        <v>-0.003760198174546843</v>
+        <v>0.02983171745148086</v>
       </c>
       <c r="E12">
-        <v>-0.04906301469246831</v>
+        <v>0.008162105862913618</v>
       </c>
       <c r="F12">
-        <v>0.02297042898285832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0306993842372911</v>
+      </c>
+      <c r="G12">
+        <v>-0.007382347006322693</v>
+      </c>
+      <c r="H12">
+        <v>0.01428329346714606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01869700013136281</v>
+        <v>-0.0274409644179175</v>
       </c>
       <c r="C13">
-        <v>-0.02292087318824734</v>
+        <v>0.007561737654142829</v>
       </c>
       <c r="D13">
-        <v>-0.03295934718982849</v>
+        <v>0.0003949910559490585</v>
       </c>
       <c r="E13">
-        <v>-0.02145090247811882</v>
+        <v>-0.01647700331786459</v>
       </c>
       <c r="F13">
-        <v>0.08281620252809382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02223955370250054</v>
+      </c>
+      <c r="G13">
+        <v>-0.06161958133339076</v>
+      </c>
+      <c r="H13">
+        <v>0.02377333094883673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01061279801992094</v>
+        <v>-0.01542713211299049</v>
       </c>
       <c r="C14">
-        <v>-0.02171137440646141</v>
+        <v>-0.003269067029971491</v>
       </c>
       <c r="D14">
-        <v>-0.002167882332105945</v>
+        <v>-0.0003739052773786795</v>
       </c>
       <c r="E14">
-        <v>-0.03803798468772315</v>
+        <v>0.007608544109062352</v>
       </c>
       <c r="F14">
-        <v>0.062916306211993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02587199780580895</v>
+      </c>
+      <c r="G14">
+        <v>-0.03924113971560727</v>
+      </c>
+      <c r="H14">
+        <v>-0.02044900400832068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02373455145606721</v>
+        <v>-0.02138290064888009</v>
       </c>
       <c r="C16">
-        <v>-0.01249932351485439</v>
+        <v>-0.01345996544287712</v>
       </c>
       <c r="D16">
-        <v>-0.01220168398957644</v>
+        <v>0.02897907954590925</v>
       </c>
       <c r="E16">
-        <v>-0.03445382772950781</v>
+        <v>0.002329119018380532</v>
       </c>
       <c r="F16">
-        <v>0.03730100468692341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02901253001497656</v>
+      </c>
+      <c r="G16">
+        <v>-0.02574712757005028</v>
+      </c>
+      <c r="H16">
+        <v>0.02026747572503227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03675539833344301</v>
+        <v>-0.03556401487764528</v>
       </c>
       <c r="C19">
-        <v>-0.01321184929825225</v>
+        <v>-0.008908648322908613</v>
       </c>
       <c r="D19">
-        <v>-0.01925179354464244</v>
+        <v>0.008478161131298231</v>
       </c>
       <c r="E19">
-        <v>-0.04382392397322845</v>
+        <v>-0.001995371158957664</v>
       </c>
       <c r="F19">
-        <v>0.09455491187396639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03215380879995023</v>
+      </c>
+      <c r="G19">
+        <v>-0.0658718050103234</v>
+      </c>
+      <c r="H19">
+        <v>0.03676855054583256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007645131539517912</v>
+        <v>-0.007110465702568627</v>
       </c>
       <c r="C20">
-        <v>-0.02064480016421155</v>
+        <v>0.006326671933750417</v>
       </c>
       <c r="D20">
-        <v>-0.003575039494043014</v>
+        <v>0.0005016604398753555</v>
       </c>
       <c r="E20">
-        <v>-0.02803656419009899</v>
+        <v>0.002059563241307525</v>
       </c>
       <c r="F20">
-        <v>0.05996584018815498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01796789664643849</v>
+      </c>
+      <c r="G20">
+        <v>-0.04801940001410102</v>
+      </c>
+      <c r="H20">
+        <v>-0.01160777186581995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00371270469597864</v>
+        <v>-0.02285587528861191</v>
       </c>
       <c r="C21">
-        <v>0.00235543606624825</v>
+        <v>0.00117862081237285</v>
       </c>
       <c r="D21">
-        <v>-0.007088443386029033</v>
+        <v>-0.0002359564115435625</v>
       </c>
       <c r="E21">
-        <v>-0.03640358917837102</v>
+        <v>0.01232199967324923</v>
       </c>
       <c r="F21">
-        <v>0.08690728245961961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.008939546987021535</v>
+      </c>
+      <c r="G21">
+        <v>-0.05336137383429969</v>
+      </c>
+      <c r="H21">
+        <v>0.008658809477256935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02517399668126936</v>
+        <v>-0.02218894141331714</v>
       </c>
       <c r="C24">
-        <v>-0.0120935046372182</v>
+        <v>-0.008637360409833898</v>
       </c>
       <c r="D24">
-        <v>-0.009018032342593083</v>
+        <v>0.02685300683517822</v>
       </c>
       <c r="E24">
-        <v>-0.02785298977515189</v>
+        <v>0.001961879186486274</v>
       </c>
       <c r="F24">
-        <v>0.0379041400651895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0235787090456543</v>
+      </c>
+      <c r="G24">
+        <v>-0.02709584679224921</v>
+      </c>
+      <c r="H24">
+        <v>0.02730291605739908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02941301313141746</v>
+        <v>-0.03249840714375048</v>
       </c>
       <c r="C25">
-        <v>-0.01059819790747629</v>
+        <v>-0.009232480819340128</v>
       </c>
       <c r="D25">
-        <v>-0.007453351214474955</v>
+        <v>0.02099171614280372</v>
       </c>
       <c r="E25">
-        <v>-0.03481194929324651</v>
+        <v>0.001880948228483587</v>
       </c>
       <c r="F25">
-        <v>0.03990503410073375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02861090162958844</v>
+      </c>
+      <c r="G25">
+        <v>-0.03202259013821873</v>
+      </c>
+      <c r="H25">
+        <v>0.02966271805318186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01621149792690586</v>
+        <v>-0.02013446207878543</v>
       </c>
       <c r="C26">
-        <v>0.0007158296905484639</v>
+        <v>0.01443346683108852</v>
       </c>
       <c r="D26">
-        <v>-0.03455429777040946</v>
+        <v>0.006297065073050397</v>
       </c>
       <c r="E26">
-        <v>-0.04336618142872126</v>
+        <v>-0.005985960356564581</v>
       </c>
       <c r="F26">
-        <v>0.06065091868743442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007318675167048047</v>
+      </c>
+      <c r="G26">
+        <v>-0.03786872318211533</v>
+      </c>
+      <c r="H26">
+        <v>-0.0008996515805058638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07186787100773753</v>
+        <v>-0.03138081624630956</v>
       </c>
       <c r="C27">
-        <v>-0.05158823163285605</v>
+        <v>-0.02037756743730212</v>
       </c>
       <c r="D27">
-        <v>0.005336998818695342</v>
+        <v>0.002421947479470151</v>
       </c>
       <c r="E27">
-        <v>-0.05389934387018074</v>
+        <v>0.00423946020211261</v>
       </c>
       <c r="F27">
-        <v>0.06323628229816798</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02604258478367157</v>
+      </c>
+      <c r="G27">
+        <v>-0.02635273405746799</v>
+      </c>
+      <c r="H27">
+        <v>-0.001509504069319168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08426990509208873</v>
+        <v>-0.121109660221142</v>
       </c>
       <c r="C28">
-        <v>-0.06408266170141047</v>
+        <v>-0.05499929929432721</v>
       </c>
       <c r="D28">
-        <v>0.04051325896700678</v>
+        <v>-0.2058500708838023</v>
       </c>
       <c r="E28">
-        <v>0.1758465600975346</v>
+        <v>-0.03107447657428579</v>
       </c>
       <c r="F28">
-        <v>0.06152101723926475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1275835424017987</v>
+      </c>
+      <c r="G28">
+        <v>-0.01972657028673176</v>
+      </c>
+      <c r="H28">
+        <v>-0.005564635210849466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01905341217444761</v>
+        <v>-0.0204676489477408</v>
       </c>
       <c r="C29">
-        <v>-0.02361855672879443</v>
+        <v>-0.006807827870637715</v>
       </c>
       <c r="D29">
-        <v>0.002111758456451548</v>
+        <v>0.002339234240732859</v>
       </c>
       <c r="E29">
-        <v>-0.05891725207045572</v>
+        <v>0.008778115284852351</v>
       </c>
       <c r="F29">
-        <v>0.05178750343267763</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02982821340399282</v>
+      </c>
+      <c r="G29">
+        <v>-0.03289653066279398</v>
+      </c>
+      <c r="H29">
+        <v>-0.02036528621523808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07657402240152004</v>
+        <v>-0.0539569869007192</v>
       </c>
       <c r="C30">
-        <v>-0.05661411745728528</v>
+        <v>-0.00883851134150114</v>
       </c>
       <c r="D30">
-        <v>-0.03611319971248591</v>
+        <v>0.04776936576947288</v>
       </c>
       <c r="E30">
-        <v>-0.09988736514684173</v>
+        <v>-0.0343773302078911</v>
       </c>
       <c r="F30">
-        <v>0.07261785698980243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.08415845263262539</v>
+      </c>
+      <c r="G30">
+        <v>-0.06467976956944795</v>
+      </c>
+      <c r="H30">
+        <v>0.03787085649955837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05726750654540783</v>
+        <v>-0.05165454326708761</v>
       </c>
       <c r="C31">
-        <v>-0.01898578615861727</v>
+        <v>-0.02669414587297923</v>
       </c>
       <c r="D31">
-        <v>-0.04449185167586023</v>
+        <v>0.01833779039591862</v>
       </c>
       <c r="E31">
-        <v>-0.03617133163852927</v>
+        <v>-0.008724283162532775</v>
       </c>
       <c r="F31">
-        <v>0.03997901560564106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0228610104272758</v>
+      </c>
+      <c r="G31">
+        <v>-0.01725554329986308</v>
+      </c>
+      <c r="H31">
+        <v>-0.01561319074458789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.00992187412903071</v>
+        <v>-0.004707572700803287</v>
       </c>
       <c r="C32">
-        <v>-0.0208107395507539</v>
+        <v>-0.01483617029455288</v>
       </c>
       <c r="D32">
-        <v>0.003290302899375249</v>
+        <v>-0.008209732363830827</v>
       </c>
       <c r="E32">
-        <v>-0.07438861949412885</v>
+        <v>0.01795378437523057</v>
       </c>
       <c r="F32">
-        <v>0.07223567052565939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04410205181698139</v>
+      </c>
+      <c r="G32">
+        <v>-0.05008769734436229</v>
+      </c>
+      <c r="H32">
+        <v>0.04171992566289052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04813161482988906</v>
+        <v>-0.03845941243998505</v>
       </c>
       <c r="C33">
-        <v>-0.003277270719683804</v>
+        <v>-0.009026732014291433</v>
       </c>
       <c r="D33">
-        <v>-0.04091936704903482</v>
+        <v>0.02942227732012737</v>
       </c>
       <c r="E33">
-        <v>-0.06848930587120247</v>
+        <v>-0.02084079557488784</v>
       </c>
       <c r="F33">
-        <v>0.08974241461865722</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01808729453974462</v>
+      </c>
+      <c r="G33">
+        <v>-0.05899202014348022</v>
+      </c>
+      <c r="H33">
+        <v>0.01606858579298485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02824824747405297</v>
+        <v>-0.02359124692811416</v>
       </c>
       <c r="C34">
-        <v>-0.01674084748809459</v>
+        <v>-0.02259088105707957</v>
       </c>
       <c r="D34">
-        <v>-0.009952524699070009</v>
+        <v>0.02536661090953337</v>
       </c>
       <c r="E34">
-        <v>-0.03919215051067537</v>
+        <v>0.006799151242308586</v>
       </c>
       <c r="F34">
-        <v>0.04374110196772077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02973161282717015</v>
+      </c>
+      <c r="G34">
+        <v>-0.0255457861520302</v>
+      </c>
+      <c r="H34">
+        <v>0.02462097962661385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01185956756712951</v>
+        <v>-0.01831633847118777</v>
       </c>
       <c r="C36">
-        <v>-0.009689814672911046</v>
+        <v>0.0009712849292347642</v>
       </c>
       <c r="D36">
-        <v>-0.0009926626973116631</v>
+        <v>-0.002136487908963864</v>
       </c>
       <c r="E36">
-        <v>-0.03012012126413283</v>
+        <v>0.002472515696905062</v>
       </c>
       <c r="F36">
-        <v>0.03293828234910515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.007165026448543191</v>
+      </c>
+      <c r="G36">
+        <v>-0.02184565855045187</v>
+      </c>
+      <c r="H36">
+        <v>-0.002866151239273888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006090775333693355</v>
+        <v>-0.01250715477998937</v>
       </c>
       <c r="C38">
-        <v>0.003437510217750664</v>
+        <v>-0.01766879375244907</v>
       </c>
       <c r="D38">
-        <v>0.01572720354929845</v>
+        <v>-0.002336908155594761</v>
       </c>
       <c r="E38">
-        <v>0.006668923557401374</v>
+        <v>0.007165182790741247</v>
       </c>
       <c r="F38">
-        <v>0.006968292040926396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008989159899088559</v>
+      </c>
+      <c r="G38">
+        <v>-0.02610542932066309</v>
+      </c>
+      <c r="H38">
+        <v>0.01787824294016637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03647310028187541</v>
+        <v>-0.02480398691256549</v>
       </c>
       <c r="C39">
-        <v>-0.02497332448027764</v>
+        <v>-0.008002653621745112</v>
       </c>
       <c r="D39">
-        <v>-0.02720994779702819</v>
+        <v>0.06048086289658077</v>
       </c>
       <c r="E39">
-        <v>-0.03780146526253358</v>
+        <v>9.499722322401288e-05</v>
       </c>
       <c r="F39">
-        <v>0.04945938557724198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05287689556437422</v>
+      </c>
+      <c r="G39">
+        <v>-0.05143073117238692</v>
+      </c>
+      <c r="H39">
+        <v>0.0486017136182568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02701498677508658</v>
+        <v>-0.02898451637950198</v>
       </c>
       <c r="C40">
-        <v>-0.03666629926537673</v>
+        <v>-0.007291606292533826</v>
       </c>
       <c r="D40">
-        <v>-0.05067922367595483</v>
+        <v>0.01900240478634306</v>
       </c>
       <c r="E40">
-        <v>-0.04131302198514331</v>
+        <v>-0.01877872326023747</v>
       </c>
       <c r="F40">
-        <v>0.07539252465881455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03970949120124523</v>
+      </c>
+      <c r="G40">
+        <v>-0.03737682051064428</v>
+      </c>
+      <c r="H40">
+        <v>0.04430499382720803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003316233609548907</v>
+        <v>-0.007468581132919579</v>
       </c>
       <c r="C41">
-        <v>0.01051894588768242</v>
+        <v>0.0002754116447606752</v>
       </c>
       <c r="D41">
-        <v>-0.006432591974155181</v>
+        <v>-0.00561236070954435</v>
       </c>
       <c r="E41">
-        <v>-0.01960423777370192</v>
+        <v>-0.001317793966984527</v>
       </c>
       <c r="F41">
-        <v>0.01706903722728523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006132998145787494</v>
+      </c>
+      <c r="G41">
+        <v>-0.006319634135468605</v>
+      </c>
+      <c r="H41">
+        <v>-0.0181322790117251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3988658816551716</v>
+        <v>-0.2468101954890563</v>
       </c>
       <c r="C42">
-        <v>0.8772669673847594</v>
+        <v>0.04898666798846323</v>
       </c>
       <c r="D42">
-        <v>-0.1791871132925935</v>
+        <v>0.6339605063475177</v>
       </c>
       <c r="E42">
-        <v>0.1067639885884457</v>
+        <v>-0.08422842904567897</v>
       </c>
       <c r="F42">
-        <v>-0.01330728825139094</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7115812247425444</v>
+      </c>
+      <c r="G42">
+        <v>0.07136803115152889</v>
+      </c>
+      <c r="H42">
+        <v>0.02117475425644733</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01019111755844299</v>
+        <v>-0.004702073978160959</v>
       </c>
       <c r="C43">
-        <v>0.005347434956338143</v>
+        <v>0.003278136948627812</v>
       </c>
       <c r="D43">
-        <v>-0.01098244921889588</v>
+        <v>-0.007371296335473989</v>
       </c>
       <c r="E43">
-        <v>-0.02068291998085669</v>
+        <v>-0.005489013750962344</v>
       </c>
       <c r="F43">
-        <v>0.03284826888165133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01005644085378369</v>
+      </c>
+      <c r="G43">
+        <v>-0.01478739927828479</v>
+      </c>
+      <c r="H43">
+        <v>-0.0102873309094222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01437882926207742</v>
+        <v>-0.0106471936032729</v>
       </c>
       <c r="C44">
-        <v>-0.00605871293897456</v>
+        <v>-0.001125885259163354</v>
       </c>
       <c r="D44">
-        <v>-0.01915302444595078</v>
+        <v>0.02262692123766822</v>
       </c>
       <c r="E44">
-        <v>-0.05563554197955303</v>
+        <v>0.003431253294913001</v>
       </c>
       <c r="F44">
-        <v>0.1872381146231308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.009839189309900621</v>
+      </c>
+      <c r="G44">
+        <v>-0.08640111932560711</v>
+      </c>
+      <c r="H44">
+        <v>0.01416995512253193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01658009470134859</v>
+        <v>-0.02132757687690959</v>
       </c>
       <c r="C46">
-        <v>-0.0198181324338724</v>
+        <v>-0.003128322656631083</v>
       </c>
       <c r="D46">
-        <v>-0.0127416718020536</v>
+        <v>0.006678767426730072</v>
       </c>
       <c r="E46">
-        <v>-0.0599014197735315</v>
+        <v>-0.00196171943787871</v>
       </c>
       <c r="F46">
-        <v>0.05825947338788341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03548799359697941</v>
+      </c>
+      <c r="G46">
+        <v>-0.04859562734943768</v>
+      </c>
+      <c r="H46">
+        <v>-0.01786101796966592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09238868310754399</v>
+        <v>-0.07024541011024786</v>
       </c>
       <c r="C47">
-        <v>-0.0339216411974817</v>
+        <v>-0.04713096004694051</v>
       </c>
       <c r="D47">
-        <v>-0.02324732508948522</v>
+        <v>0.02206887681131788</v>
       </c>
       <c r="E47">
-        <v>-0.05319266170871095</v>
+        <v>-0.004393166404281117</v>
       </c>
       <c r="F47">
-        <v>0.003259841541475694</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0338870408155669</v>
+      </c>
+      <c r="G47">
+        <v>0.01529664836629345</v>
+      </c>
+      <c r="H47">
+        <v>-0.03123646689748186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.007113756327708013</v>
+        <v>-0.01614946467751068</v>
       </c>
       <c r="C48">
-        <v>-0.004918732621040927</v>
+        <v>-0.00870859223886274</v>
       </c>
       <c r="D48">
-        <v>-0.01264369953229029</v>
+        <v>0.004394309644783941</v>
       </c>
       <c r="E48">
-        <v>-0.04457608091933379</v>
+        <v>-0.001038796220016164</v>
       </c>
       <c r="F48">
-        <v>0.0470036424192815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01301044955106556</v>
+      </c>
+      <c r="G48">
+        <v>-0.02778978603919564</v>
+      </c>
+      <c r="H48">
+        <v>0.0007568549772053517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08428999035600897</v>
+        <v>-0.0639981764233111</v>
       </c>
       <c r="C50">
-        <v>-0.02014195716276788</v>
+        <v>-0.04003230499843746</v>
       </c>
       <c r="D50">
-        <v>-0.03547449013021257</v>
+        <v>0.03483897491803099</v>
       </c>
       <c r="E50">
-        <v>-0.05741883125897253</v>
+        <v>0.009512456177980645</v>
       </c>
       <c r="F50">
-        <v>0.03205357484333708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03333393629659576</v>
+      </c>
+      <c r="G50">
+        <v>-0.01722068649889779</v>
+      </c>
+      <c r="H50">
+        <v>-0.02481442240439673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.03701855651795242</v>
+        <v>-0.0253107092519161</v>
       </c>
       <c r="C51">
-        <v>6.310694876130026e-06</v>
+        <v>-0.005884172802758972</v>
       </c>
       <c r="D51">
-        <v>-0.04505069769744571</v>
+        <v>-0.004348278441688077</v>
       </c>
       <c r="E51">
-        <v>-0.0123525020596165</v>
+        <v>-0.01494339185705879</v>
       </c>
       <c r="F51">
-        <v>0.155083293345667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01721686403853495</v>
+      </c>
+      <c r="G51">
+        <v>-0.08352148184312633</v>
+      </c>
+      <c r="H51">
+        <v>0.02276894120443014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1018703586232475</v>
+        <v>-0.08945782852216647</v>
       </c>
       <c r="C53">
-        <v>-0.0474907526638618</v>
+        <v>-0.0592398480076163</v>
       </c>
       <c r="D53">
-        <v>-0.04099517958519721</v>
+        <v>0.0453699232626295</v>
       </c>
       <c r="E53">
-        <v>-0.06227062389042393</v>
+        <v>-0.002310294141976849</v>
       </c>
       <c r="F53">
-        <v>-0.05613004458101635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06842875777642339</v>
+      </c>
+      <c r="G53">
+        <v>0.05990363156280975</v>
+      </c>
+      <c r="H53">
+        <v>-0.03504184969259051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01933093932954624</v>
+        <v>-0.02131365333969107</v>
       </c>
       <c r="C54">
-        <v>-0.03733340764740162</v>
+        <v>-0.01781113446973719</v>
       </c>
       <c r="D54">
-        <v>-0.002473428591453931</v>
+        <v>-0.02531363921329303</v>
       </c>
       <c r="E54">
-        <v>-0.03681346557601461</v>
+        <v>0.001246441051107091</v>
       </c>
       <c r="F54">
-        <v>0.07639577833265096</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01011528861228196</v>
+      </c>
+      <c r="G54">
+        <v>-0.041882256394818</v>
+      </c>
+      <c r="H54">
+        <v>-0.01775522798662979</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09967797850860367</v>
+        <v>-0.07704520073244708</v>
       </c>
       <c r="C55">
-        <v>-0.03396089230045469</v>
+        <v>-0.05207783900080849</v>
       </c>
       <c r="D55">
-        <v>0.004445367203527769</v>
+        <v>0.04371414878119632</v>
       </c>
       <c r="E55">
-        <v>-0.06269529674916348</v>
+        <v>0.0109789929701546</v>
       </c>
       <c r="F55">
-        <v>-0.0527470701581793</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05788559512369192</v>
+      </c>
+      <c r="G55">
+        <v>0.03834898046989325</v>
+      </c>
+      <c r="H55">
+        <v>-0.05024661157688495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.139201817308404</v>
+        <v>-0.1162610402432769</v>
       </c>
       <c r="C56">
-        <v>-0.07690071350751124</v>
+        <v>-0.08418663948718197</v>
       </c>
       <c r="D56">
-        <v>-0.02632363045612119</v>
+        <v>0.05834498253011328</v>
       </c>
       <c r="E56">
-        <v>-0.08105761941859167</v>
+        <v>0.003229732022055181</v>
       </c>
       <c r="F56">
-        <v>-0.1620371280874305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09700386550857583</v>
+      </c>
+      <c r="G56">
+        <v>0.1039612842607599</v>
+      </c>
+      <c r="H56">
+        <v>-0.02604397165438832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04212449238151016</v>
+        <v>-0.04199606998228209</v>
       </c>
       <c r="C57">
-        <v>-0.01337045455889989</v>
+        <v>0.0007889564655621275</v>
       </c>
       <c r="D57">
-        <v>-0.02949717606146183</v>
+        <v>0.02028869277742183</v>
       </c>
       <c r="E57">
-        <v>-0.02430352003950736</v>
+        <v>-0.01030249036047166</v>
       </c>
       <c r="F57">
-        <v>0.07542090878995371</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0280104406349362</v>
+      </c>
+      <c r="G57">
+        <v>-0.06721465454498723</v>
+      </c>
+      <c r="H57">
+        <v>0.01057760564557189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2023972727306389</v>
+        <v>-0.1493849714335293</v>
       </c>
       <c r="C58">
-        <v>-0.06504824936797621</v>
+        <v>-0.08160576207318002</v>
       </c>
       <c r="D58">
-        <v>-0.1043092624467982</v>
+        <v>0.1202582858230257</v>
       </c>
       <c r="E58">
-        <v>-0.2182899334665493</v>
+        <v>-0.1128513080882271</v>
       </c>
       <c r="F58">
-        <v>0.3255173925086421</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07940291871127926</v>
+      </c>
+      <c r="G58">
+        <v>-0.6656321718019029</v>
+      </c>
+      <c r="H58">
+        <v>-0.5677551652696458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08008785005064149</v>
+        <v>-0.1210551498321825</v>
       </c>
       <c r="C59">
-        <v>-0.08894801477263453</v>
+        <v>-0.06170782577465232</v>
       </c>
       <c r="D59">
-        <v>0.03203345874221229</v>
+        <v>-0.2031204195456619</v>
       </c>
       <c r="E59">
-        <v>0.1497996898560567</v>
+        <v>-0.04783504853000592</v>
       </c>
       <c r="F59">
-        <v>0.0601713153553272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.1061697622060727</v>
+      </c>
+      <c r="G59">
+        <v>-0.02780608165509541</v>
+      </c>
+      <c r="H59">
+        <v>0.02568821691369697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1674928408058632</v>
+        <v>-0.160449769393308</v>
       </c>
       <c r="C60">
-        <v>-0.07608697314686598</v>
+        <v>-0.07509133420275262</v>
       </c>
       <c r="D60">
-        <v>-0.06409725563867363</v>
+        <v>0.005527375836016762</v>
       </c>
       <c r="E60">
-        <v>-0.02982104596110596</v>
+        <v>-0.05587585792817101</v>
       </c>
       <c r="F60">
-        <v>0.0920039853845452</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.07125167402202309</v>
+      </c>
+      <c r="G60">
+        <v>-0.1320203665741496</v>
+      </c>
+      <c r="H60">
+        <v>0.3678616335698585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01849353136126325</v>
+        <v>-0.02127813369783469</v>
       </c>
       <c r="C61">
-        <v>-0.01179516366402546</v>
+        <v>-0.01160030124064883</v>
       </c>
       <c r="D61">
-        <v>-0.003873374676255606</v>
+        <v>0.03172841166343999</v>
       </c>
       <c r="E61">
-        <v>-0.0210415928829495</v>
+        <v>0.004232284241009362</v>
       </c>
       <c r="F61">
-        <v>0.04345431221109478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03640672085771523</v>
+      </c>
+      <c r="G61">
+        <v>-0.03252702820017066</v>
+      </c>
+      <c r="H61">
+        <v>0.03700267299395736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01552658541526228</v>
+        <v>-0.01364376857678864</v>
       </c>
       <c r="C63">
-        <v>-0.01483099053098604</v>
+        <v>-0.001601911270801795</v>
       </c>
       <c r="D63">
-        <v>-0.01271438433182134</v>
+        <v>0.003917456665279686</v>
       </c>
       <c r="E63">
-        <v>-0.04250179820233367</v>
+        <v>0.00155751057423052</v>
       </c>
       <c r="F63">
-        <v>0.01989502748783509</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02153108854082307</v>
+      </c>
+      <c r="G63">
+        <v>-0.01830575257781258</v>
+      </c>
+      <c r="H63">
+        <v>-0.0106030525839076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02799126459196666</v>
+        <v>-0.03702302612937126</v>
       </c>
       <c r="C64">
-        <v>-0.0216967308699919</v>
+        <v>-0.01874098298846261</v>
       </c>
       <c r="D64">
-        <v>0.01924368461247468</v>
+        <v>0.02752628327695281</v>
       </c>
       <c r="E64">
-        <v>-0.04750458344170794</v>
+        <v>0.01441746015403157</v>
       </c>
       <c r="F64">
-        <v>0.02152428682795452</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03375268706369406</v>
+      </c>
+      <c r="G64">
+        <v>-0.009555165417295442</v>
+      </c>
+      <c r="H64">
+        <v>0.02964867672989309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01087211280526245</v>
+        <v>-0.0356350496368354</v>
       </c>
       <c r="C65">
-        <v>0.0004016990425287955</v>
+        <v>-0.004536657030449004</v>
       </c>
       <c r="D65">
-        <v>-0.009120092541836959</v>
+        <v>0.03567219980992885</v>
       </c>
       <c r="E65">
-        <v>-0.005930260167488387</v>
+        <v>0.007035164709246828</v>
       </c>
       <c r="F65">
-        <v>0.007385814834388002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0420489046257536</v>
+      </c>
+      <c r="G65">
+        <v>-0.001291532382701449</v>
+      </c>
+      <c r="H65">
+        <v>0.05834858742218898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03332304298628566</v>
+        <v>-0.03009923102301839</v>
       </c>
       <c r="C66">
-        <v>-0.02879249474170823</v>
+        <v>-0.01434941724925132</v>
       </c>
       <c r="D66">
-        <v>-0.02078746833491283</v>
+        <v>0.06508723767710588</v>
       </c>
       <c r="E66">
-        <v>-0.04142175753193954</v>
+        <v>-0.005128664178816203</v>
       </c>
       <c r="F66">
-        <v>0.04500084159116811</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07318780150665877</v>
+      </c>
+      <c r="G66">
+        <v>-0.0426485273646561</v>
+      </c>
+      <c r="H66">
+        <v>0.0610677516477232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0254150230588189</v>
+        <v>-0.03117013632832989</v>
       </c>
       <c r="C67">
-        <v>-0.007489559370041845</v>
+        <v>-0.0250861910169454</v>
       </c>
       <c r="D67">
-        <v>0.01667633765378469</v>
+        <v>-0.01067826504836734</v>
       </c>
       <c r="E67">
-        <v>0.0324910564287955</v>
+        <v>0.002772061183355224</v>
       </c>
       <c r="F67">
-        <v>0.01831902656584092</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01074704837026198</v>
+      </c>
+      <c r="G67">
+        <v>-0.0174348273774645</v>
+      </c>
+      <c r="H67">
+        <v>0.03178873532831375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09293400449515064</v>
+        <v>-0.1247825193181202</v>
       </c>
       <c r="C68">
-        <v>-0.06822818966402591</v>
+        <v>-0.0401181638229908</v>
       </c>
       <c r="D68">
-        <v>0.05042362448224465</v>
+        <v>-0.1885914714356961</v>
       </c>
       <c r="E68">
-        <v>0.1758889587075955</v>
+        <v>-0.03940223776709716</v>
       </c>
       <c r="F68">
-        <v>0.01421970509573173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1251799629282845</v>
+      </c>
+      <c r="G68">
+        <v>-0.0161428617347656</v>
+      </c>
+      <c r="H68">
+        <v>-0.04684794598701241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07133588622452858</v>
+        <v>-0.05464167261856036</v>
       </c>
       <c r="C69">
-        <v>-0.03400841937524949</v>
+        <v>-0.04182053773441968</v>
       </c>
       <c r="D69">
-        <v>-0.02435002027768464</v>
+        <v>0.02116528671843203</v>
       </c>
       <c r="E69">
-        <v>-0.01407371936577035</v>
+        <v>-0.005071858917434431</v>
       </c>
       <c r="F69">
-        <v>0.0209500201059579</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03333561406151726</v>
+      </c>
+      <c r="G69">
+        <v>0.005946360197332392</v>
+      </c>
+      <c r="H69">
+        <v>-0.01125464062152325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1087698574912762</v>
+        <v>-0.1206472403088364</v>
       </c>
       <c r="C71">
-        <v>-0.07529152026842661</v>
+        <v>-0.04893374803862491</v>
       </c>
       <c r="D71">
-        <v>0.02466720389014039</v>
+        <v>-0.1774254329581786</v>
       </c>
       <c r="E71">
-        <v>0.2222259897948713</v>
+        <v>-0.0423076777051257</v>
       </c>
       <c r="F71">
-        <v>0.04193262342221692</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1300409178686718</v>
+      </c>
+      <c r="G71">
+        <v>-0.02052015305450841</v>
+      </c>
+      <c r="H71">
+        <v>-0.0226757273266866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1063675666254648</v>
+        <v>-0.08094382429895378</v>
       </c>
       <c r="C72">
-        <v>-0.09679473634255868</v>
+        <v>-0.06231139075907462</v>
       </c>
       <c r="D72">
-        <v>-0.01846439925582618</v>
+        <v>0.0543499959597719</v>
       </c>
       <c r="E72">
-        <v>-0.08550291093969997</v>
+        <v>-0.007823287675271422</v>
       </c>
       <c r="F72">
-        <v>0.1028860720902367</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1190404351381838</v>
+      </c>
+      <c r="G72">
+        <v>-0.09420069884074428</v>
+      </c>
+      <c r="H72">
+        <v>0.1408460845392427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2494529880130474</v>
+        <v>-0.2285422440808188</v>
       </c>
       <c r="C73">
-        <v>-0.1141044707030358</v>
+        <v>-0.1023901520089352</v>
       </c>
       <c r="D73">
-        <v>-0.06291790517420948</v>
+        <v>0.03226326564290724</v>
       </c>
       <c r="E73">
-        <v>0.007712727721453503</v>
+        <v>-0.08639606048849349</v>
       </c>
       <c r="F73">
-        <v>0.1999420602567342</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09034776862475942</v>
+      </c>
+      <c r="G73">
+        <v>-0.2031969286139295</v>
+      </c>
+      <c r="H73">
+        <v>0.5062845212107876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1218449606551645</v>
+        <v>-0.1046741490661251</v>
       </c>
       <c r="C74">
-        <v>-0.04389567852609707</v>
+        <v>-0.07538259826766443</v>
       </c>
       <c r="D74">
-        <v>-0.02983713547294654</v>
+        <v>0.05941905154816396</v>
       </c>
       <c r="E74">
-        <v>-0.03786152427263816</v>
+        <v>-0.003815610300392003</v>
       </c>
       <c r="F74">
-        <v>-0.1223520077633956</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08138490184524058</v>
+      </c>
+      <c r="G74">
+        <v>0.08686680411763203</v>
+      </c>
+      <c r="H74">
+        <v>-0.01020964777111171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.216423442058654</v>
+        <v>-0.209795838532723</v>
       </c>
       <c r="C75">
-        <v>-0.1179777258715318</v>
+        <v>-0.1527071931198007</v>
       </c>
       <c r="D75">
-        <v>-0.06651796793617779</v>
+        <v>0.07463530289328409</v>
       </c>
       <c r="E75">
-        <v>-0.09605914189881949</v>
+        <v>-0.02442957608758384</v>
       </c>
       <c r="F75">
-        <v>-0.1836130191030872</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1542513907802126</v>
+      </c>
+      <c r="G75">
+        <v>0.1638563148945759</v>
+      </c>
+      <c r="H75">
+        <v>-0.08644995319209198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2533615327721822</v>
+        <v>-0.1958756997433872</v>
       </c>
       <c r="C76">
-        <v>-0.122775961404127</v>
+        <v>-0.1464584756916971</v>
       </c>
       <c r="D76">
-        <v>-0.01166478610656779</v>
+        <v>0.07152171571339844</v>
       </c>
       <c r="E76">
-        <v>-0.06236814956740627</v>
+        <v>0.01474714675575237</v>
       </c>
       <c r="F76">
-        <v>-0.195796358761732</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1508353482994573</v>
+      </c>
+      <c r="G76">
+        <v>0.1803271161671474</v>
+      </c>
+      <c r="H76">
+        <v>-0.08894868827097155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1317531268562646</v>
+        <v>-0.07424097292859309</v>
       </c>
       <c r="C77">
-        <v>0.01497493225060912</v>
+        <v>-0.02647077246825865</v>
       </c>
       <c r="D77">
-        <v>-0.06306796025433871</v>
+        <v>0.07754720448156514</v>
       </c>
       <c r="E77">
-        <v>-0.09551691946871235</v>
+        <v>-0.009788783676154451</v>
       </c>
       <c r="F77">
-        <v>0.1859845117192528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01451748905848167</v>
+      </c>
+      <c r="G77">
+        <v>-0.1159012374457388</v>
+      </c>
+      <c r="H77">
+        <v>-0.06719477750061595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04682560419670128</v>
+        <v>-0.03432664090686783</v>
       </c>
       <c r="C78">
-        <v>-0.01258943154447981</v>
+        <v>-0.0177234699422547</v>
       </c>
       <c r="D78">
-        <v>-0.02901060651473109</v>
+        <v>0.05132764214711723</v>
       </c>
       <c r="E78">
-        <v>-0.1052595384538021</v>
+        <v>0.006034205404596352</v>
       </c>
       <c r="F78">
-        <v>0.02648010898291054</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.05440977813331028</v>
+      </c>
+      <c r="G78">
+        <v>-0.04806598412093853</v>
+      </c>
+      <c r="H78">
+        <v>0.02662949721403816</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1962488147327702</v>
+        <v>-0.1675970212262599</v>
       </c>
       <c r="C80">
-        <v>0.1403035176996521</v>
+        <v>-0.09092423043658492</v>
       </c>
       <c r="D80">
-        <v>0.9284333547159449</v>
+        <v>-0.02771027409528342</v>
       </c>
       <c r="E80">
-        <v>-0.2388434513346367</v>
+        <v>0.9614529868512801</v>
       </c>
       <c r="F80">
-        <v>0.03615873805032861</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.1043502389598207</v>
+      </c>
+      <c r="G80">
+        <v>-0.1035757232110389</v>
+      </c>
+      <c r="H80">
+        <v>0.007474009209201679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1521536911941616</v>
+        <v>-0.1420053658973472</v>
       </c>
       <c r="C81">
-        <v>-0.1026523131271853</v>
+        <v>-0.1031664717669404</v>
       </c>
       <c r="D81">
-        <v>-0.02161926492753526</v>
+        <v>0.04565860758576695</v>
       </c>
       <c r="E81">
-        <v>-0.0693216388483377</v>
+        <v>-0.001807748542774207</v>
       </c>
       <c r="F81">
-        <v>-0.1825861838628517</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1090726001630291</v>
+      </c>
+      <c r="G81">
+        <v>0.1148583199556111</v>
+      </c>
+      <c r="H81">
+        <v>-0.06953440351665099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0489576053757197</v>
+        <v>-0.03721852665161742</v>
       </c>
       <c r="C83">
-        <v>0.008526794355157201</v>
+        <v>-0.01588651912808888</v>
       </c>
       <c r="D83">
-        <v>-0.03842698223927749</v>
+        <v>0.01957252151116102</v>
       </c>
       <c r="E83">
-        <v>-0.03932042822995636</v>
+        <v>-0.01295380964403799</v>
       </c>
       <c r="F83">
-        <v>0.06681928930979042</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01526113111860763</v>
+      </c>
+      <c r="G83">
+        <v>-0.05507002475164796</v>
+      </c>
+      <c r="H83">
+        <v>0.01765896032501273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2237789886477423</v>
+        <v>-0.2001603169122242</v>
       </c>
       <c r="C85">
-        <v>-0.09986421178231002</v>
+        <v>-0.131666366941359</v>
       </c>
       <c r="D85">
-        <v>-0.03669035224236929</v>
+        <v>0.09392188184349803</v>
       </c>
       <c r="E85">
-        <v>-0.06430846463707356</v>
+        <v>-0.01232455268157443</v>
       </c>
       <c r="F85">
-        <v>-0.1998198810280525</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1426114093976921</v>
+      </c>
+      <c r="G85">
+        <v>0.170669866591703</v>
+      </c>
+      <c r="H85">
+        <v>-0.06243649846209035</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005037840619100883</v>
+        <v>-0.01037478633991478</v>
       </c>
       <c r="C86">
-        <v>0.01131306819316028</v>
+        <v>0.001230889452008583</v>
       </c>
       <c r="D86">
-        <v>-0.004363528477326467</v>
+        <v>0.01023718284610824</v>
       </c>
       <c r="E86">
-        <v>-0.05941914765725904</v>
+        <v>-0.007165964494581194</v>
       </c>
       <c r="F86">
-        <v>0.07116781617723994</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.003949490861097775</v>
+      </c>
+      <c r="G86">
+        <v>-0.07772633988917818</v>
+      </c>
+      <c r="H86">
+        <v>0.03714493969425735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02554245744146797</v>
+        <v>-0.02430587272268299</v>
       </c>
       <c r="C87">
-        <v>-0.009874724875461836</v>
+        <v>-0.007726914798861109</v>
       </c>
       <c r="D87">
-        <v>-0.007726313891085379</v>
+        <v>0.02371133656242767</v>
       </c>
       <c r="E87">
-        <v>-0.03586485683109616</v>
+        <v>0.0007641139894915463</v>
       </c>
       <c r="F87">
-        <v>0.06421692714013814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03117256216560843</v>
+      </c>
+      <c r="G87">
+        <v>-0.08795572843653991</v>
+      </c>
+      <c r="H87">
+        <v>0.02376780087282516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.007692177285368557</v>
+        <v>-0.04045316666809808</v>
       </c>
       <c r="C88">
-        <v>-0.01923918845621836</v>
+        <v>0.001305617598712317</v>
       </c>
       <c r="D88">
-        <v>0.02197917019298588</v>
+        <v>-0.009547575766834678</v>
       </c>
       <c r="E88">
-        <v>0.005162778326281405</v>
+        <v>0.005735652578080873</v>
       </c>
       <c r="F88">
-        <v>0.03113471915527982</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01025329038093262</v>
+      </c>
+      <c r="G88">
+        <v>0.0032847390477744</v>
+      </c>
+      <c r="H88">
+        <v>0.01274407589706434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.127225359585134</v>
+        <v>-0.1954824884749115</v>
       </c>
       <c r="C89">
-        <v>-0.09640641067318954</v>
+        <v>-0.07531171274603621</v>
       </c>
       <c r="D89">
-        <v>0.03295143535616923</v>
+        <v>-0.3137235338693017</v>
       </c>
       <c r="E89">
-        <v>0.2966544365603715</v>
+        <v>-0.08941848771628112</v>
       </c>
       <c r="F89">
-        <v>0.09517332558507619</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1923759349469078</v>
+      </c>
+      <c r="G89">
+        <v>-0.008965734137444899</v>
+      </c>
+      <c r="H89">
+        <v>-0.01994509007744998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1186013655131083</v>
+        <v>-0.1517378987814157</v>
       </c>
       <c r="C90">
-        <v>-0.09901583451770286</v>
+        <v>-0.05868023782783813</v>
       </c>
       <c r="D90">
-        <v>0.0844324206807871</v>
+        <v>-0.2727602381313171</v>
       </c>
       <c r="E90">
-        <v>0.2762426736052455</v>
+        <v>-0.05872655980060201</v>
       </c>
       <c r="F90">
-        <v>0.05971802936329647</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1800457329150452</v>
+      </c>
+      <c r="G90">
+        <v>0.02814017240361133</v>
+      </c>
+      <c r="H90">
+        <v>-0.03947715552932804</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2868678008346986</v>
+        <v>-0.219405870856328</v>
       </c>
       <c r="C91">
-        <v>-0.09916059964157806</v>
+        <v>-0.1567323693348406</v>
       </c>
       <c r="D91">
-        <v>-0.06189552080892532</v>
+        <v>0.09020307800217607</v>
       </c>
       <c r="E91">
-        <v>-0.05976618549612289</v>
+        <v>-0.01690646102058165</v>
       </c>
       <c r="F91">
-        <v>-0.2477764534096552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1483866389661829</v>
+      </c>
+      <c r="G91">
+        <v>0.2197152402503992</v>
+      </c>
+      <c r="H91">
+        <v>-0.1144828299534254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1838257345755437</v>
+        <v>-0.2073170149087166</v>
       </c>
       <c r="C92">
-        <v>-0.09296504607614145</v>
+        <v>-0.1414877773910401</v>
       </c>
       <c r="D92">
-        <v>0.1083067984740653</v>
+        <v>-0.2420809879359982</v>
       </c>
       <c r="E92">
-        <v>0.4628322411045765</v>
+        <v>-0.04676119491203203</v>
       </c>
       <c r="F92">
-        <v>0.143953558413318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1529245838733473</v>
+      </c>
+      <c r="G92">
+        <v>0.03698681088416774</v>
+      </c>
+      <c r="H92">
+        <v>-0.1266327879298176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.132430207019102</v>
+        <v>-0.1739311133466283</v>
       </c>
       <c r="C93">
-        <v>-0.08109378447632595</v>
+        <v>-0.07457191369040943</v>
       </c>
       <c r="D93">
-        <v>0.09394855624035409</v>
+        <v>-0.289464691447034</v>
       </c>
       <c r="E93">
-        <v>0.384856822975074</v>
+        <v>-0.07551853234620196</v>
       </c>
       <c r="F93">
-        <v>0.01339036753501081</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.2190196813506346</v>
+      </c>
+      <c r="G93">
+        <v>0.03092179473533497</v>
+      </c>
+      <c r="H93">
+        <v>0.01732552550228337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2612473427761029</v>
+        <v>-0.2391733905377237</v>
       </c>
       <c r="C94">
-        <v>-0.1336851450489723</v>
+        <v>-0.1497157877673265</v>
       </c>
       <c r="D94">
-        <v>-0.03526888269272371</v>
+        <v>0.06358805517667969</v>
       </c>
       <c r="E94">
-        <v>-0.07689954896761296</v>
+        <v>-0.03520913778803177</v>
       </c>
       <c r="F94">
-        <v>-0.3064908614753349</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1655678122440316</v>
+      </c>
+      <c r="G94">
+        <v>0.2332749213247282</v>
+      </c>
+      <c r="H94">
+        <v>-0.1312426417391732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08298134682822937</v>
+        <v>-0.06312343079717206</v>
       </c>
       <c r="C95">
-        <v>-0.01877011253001753</v>
+        <v>-0.04774119552028896</v>
       </c>
       <c r="D95">
-        <v>-0.06904441895131221</v>
+        <v>0.073733043799565</v>
       </c>
       <c r="E95">
-        <v>-0.07124810917432155</v>
+        <v>-0.07090703797821171</v>
       </c>
       <c r="F95">
-        <v>0.05044116238406338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03434374961405178</v>
+      </c>
+      <c r="G95">
+        <v>-0.06555657816546251</v>
+      </c>
+      <c r="H95">
+        <v>0.01053414728712263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1900566766680375</v>
+        <v>-0.1645991994113209</v>
       </c>
       <c r="C98">
-        <v>-0.05845514189928975</v>
+        <v>-0.1074640234961835</v>
       </c>
       <c r="D98">
-        <v>-0.04608849911706661</v>
+        <v>0.02065275581828084</v>
       </c>
       <c r="E98">
-        <v>0.05319902673931462</v>
+        <v>-0.05782231763434761</v>
       </c>
       <c r="F98">
-        <v>0.07335044165429758</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.03747081667578481</v>
+      </c>
+      <c r="G98">
+        <v>-0.1678707583393202</v>
+      </c>
+      <c r="H98">
+        <v>0.3650085085011402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002476248017596896</v>
+        <v>-0.0138070376740147</v>
       </c>
       <c r="C101">
-        <v>-0.02828256035433355</v>
+        <v>-0.003233483094680812</v>
       </c>
       <c r="D101">
-        <v>-0.01190299098268218</v>
+        <v>0.003691088364726102</v>
       </c>
       <c r="E101">
-        <v>-0.1248425519544072</v>
+        <v>0.004345667809273973</v>
       </c>
       <c r="F101">
-        <v>0.1868733539454276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.037952269063062</v>
+      </c>
+      <c r="G101">
+        <v>-0.09409883728828278</v>
+      </c>
+      <c r="H101">
+        <v>-0.07438135724230736</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09297298008410075</v>
+        <v>-0.102269395361635</v>
       </c>
       <c r="C102">
-        <v>-0.02947218397895928</v>
+        <v>-0.05942722277389764</v>
       </c>
       <c r="D102">
-        <v>-0.01505479503917278</v>
+        <v>0.04552416747878758</v>
       </c>
       <c r="E102">
-        <v>-0.08039363066362316</v>
+        <v>0.0002635351368785249</v>
       </c>
       <c r="F102">
-        <v>-0.1386060837644774</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.07526594427771484</v>
+      </c>
+      <c r="G102">
+        <v>0.102174101385068</v>
+      </c>
+      <c r="H102">
+        <v>-0.05465578373399393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02356855043192491</v>
+        <v>-0.02126202731481632</v>
       </c>
       <c r="C103">
-        <v>-0.01082340258585584</v>
+        <v>-0.01342634538705174</v>
       </c>
       <c r="D103">
-        <v>-0.01052935989768698</v>
+        <v>0.01088268431905542</v>
       </c>
       <c r="E103">
-        <v>-0.009978607384891831</v>
+        <v>0.005872876855271616</v>
       </c>
       <c r="F103">
-        <v>-0.02479838312951535</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01886490393357139</v>
+      </c>
+      <c r="G103">
+        <v>0.01041884559378167</v>
+      </c>
+      <c r="H103">
+        <v>-0.008888416754721969</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4627157711636523</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8632904150101446</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06937475483575406</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.01951206435767002</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1543222780984176</v>
+      </c>
+      <c r="G104">
+        <v>0.0416216879600188</v>
+      </c>
+      <c r="H104">
+        <v>-0.03144136488103098</v>
       </c>
     </row>
   </sheetData>
